--- a/heart/PCA/欧式距离对比数据.xlsx
+++ b/heart/PCA/欧式距离对比数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11480"/>
+    <workbookView windowWidth="12190" windowHeight="9680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>第一轮</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>确认个体</t>
+  </si>
+  <si>
+    <t>新参数</t>
   </si>
   <si>
     <t>xyt</t>
@@ -998,20 +1001,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="10.5454545454545"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.5454545454545"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1031,16 +1034,19 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1.1458998</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>23.594425</v>
@@ -1048,7 +1054,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>9.622045</v>
@@ -1056,7 +1062,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1.3926176</v>
@@ -1065,12 +1071,12 @@
         <v>22.324602</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>11.195703</v>
@@ -1083,7 +1089,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>12.551379</v>
@@ -1091,7 +1097,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3.3419678</v>
@@ -1099,7 +1105,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>12.275036</v>
@@ -1107,16 +1113,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1.9453411</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1126,13 +1132,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1.1454904</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>21.113756</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>9.723366</v>
@@ -1148,7 +1154,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>1.3918426</v>
@@ -1157,12 +1163,12 @@
         <v>19.843933</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>11.30054</v>
@@ -1175,13 +1181,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1.2810577</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>21.442</v>
@@ -1189,7 +1195,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>9.859116</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>1.5461001</v>
@@ -1206,12 +1212,12 @@
         <v>20.172176</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>11.434353</v>
@@ -1224,13 +1230,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>1.3723267</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>21.918222</v>
@@ -1238,7 +1244,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>9.641561</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>1.6011223</v>
@@ -1255,12 +1261,12 @@
         <v>20.6484</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>11.213971</v>
@@ -1273,13 +1279,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>1.4776597</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>21.535059</v>
@@ -1287,7 +1293,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>9.764372</v>
@@ -1295,7 +1301,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>1.7143148</v>
@@ -1304,15 +1310,321 @@
         <v>20.265236</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>11.336638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>3.1729205</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>13.013591</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>11.925371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>3.4528356</v>
+      </c>
+      <c r="E34">
+        <v>14.283415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>13.498957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1.2131335</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>22.376545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>9.842489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>1.4775666</v>
+      </c>
+      <c r="E39">
+        <v>21.106722</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>11.418932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>1.2131815</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>22.099485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>9.85371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>1.4776413</v>
+      </c>
+      <c r="E44">
+        <v>20.829662</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>11.430424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1.2507397</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>19.123966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>10.08725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>1.5412493</v>
+      </c>
+      <c r="E49">
+        <v>17.854143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>11.665077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>1.4132413</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>23.209711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>9.805302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>1.6685729</v>
+      </c>
+      <c r="E54">
+        <v>21.939888</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>11.376753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>11.536455</v>
+      </c>
+      <c r="I57">
+        <v>0.2272352</v>
+      </c>
+      <c r="J57">
+        <v>31.16641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>2.307452</v>
+      </c>
+      <c r="I58">
+        <v>1.665448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>11.263732</v>
+      </c>
+      <c r="I59">
+        <v>0.102927685</v>
+      </c>
+      <c r="J59">
+        <v>29.896587</v>
+      </c>
+      <c r="K59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1.0283221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60">
+        <v>2.4316924</v>
       </c>
     </row>
   </sheetData>
